--- a/2D/2D/analysis.xlsx
+++ b/2D/2D/analysis.xlsx
@@ -316,13 +316,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,11 +434,11 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$127:$Q$127</c:f>
+              <c:f>Ez!$A$109:$Q$109</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -446,25 +447,25 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
@@ -473,25 +474,25 @@
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4584-4F17-A484-EE8B9AB1CFED}"/>
             </c:ext>
@@ -502,59 +503,59 @@
           <c:order val="1"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$128:$Q$128</c:f>
+              <c:f>Ez!$A$110:$Q$110</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>-4.00902E-10</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>-2.4102400000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.1816699999999999E-10</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>7.3498800000000003E-9</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>-4.4339900000000003E-9</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>3.2197E-9</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>7.8158999999999999E-9</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>-1.58639E-10</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.59882E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.9307799999999997E-12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8950799999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.2469500000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -562,7 +563,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{00000000-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -571,7 +572,7 @@
           <c:order val="2"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$129:$Q$129</c:f>
+              <c:f>Ez!$A$111:$Q$111</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -584,29 +585,29 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7.8574099999999995E-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.4908000000000001E-12</c:v>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.0354800000000001E-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.04058E-7</c:v>
+                  <c:v>-1.17529E-9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.21866E-7</c:v>
+                  <c:v>5.8832199999999998E-8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.04217E-7</c:v>
+                  <c:v>-1.17529E-9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.2741800000000001E-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -631,7 +632,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{00000001-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -640,11 +641,11 @@
           <c:order val="3"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$130:$Q$130</c:f>
+              <c:f>Ez!$A$112:$Q$112</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -653,46 +654,46 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>1.57173E-7</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.3218800000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.5733E-6</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.3218800000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.57173E-7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.79791E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6213899999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.79791E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -700,7 +701,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{00000002-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -709,11 +710,11 @@
           <c:order val="4"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$131:$Q$131</c:f>
+              <c:f>Ez!$A$113:$Q$113</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -725,43 +726,43 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.6195599999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>3.3045299999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.20896E-5</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.5583700000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.20896E-5</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>3.3045299999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>2.6195599999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4947600000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8096599999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3053399999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8096599999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4947600000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -769,7 +770,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{00000003-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -778,59 +779,59 @@
           <c:order val="5"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$132:$Q$132</c:f>
+              <c:f>Ez!$A$114:$Q$114</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>2.6195599999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.4060400000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.38126E-5</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>5.0438100000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>5.7209700000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.0438100000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>2.38126E-5</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>4.4060400000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>2.6195599999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9930199999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6193199999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.76032E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5023800000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.76032E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6193199999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9930199999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -838,7 +839,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{00000004-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -847,7 +848,7 @@
           <c:order val="6"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$133:$Q$133</c:f>
+              <c:f>Ez!$A$115:$Q$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -857,41 +858,41 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.57173E-7</c:v>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>3.3045299999999999E-6</c:v>
+                  <c:v>4.4947600000000002E-7</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.38126E-5</c:v>
+                  <c:v>7.6193199999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>7.2352699999999996E-5</c:v>
+                  <c:v>4.0955399999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.12281E-4</c:v>
+                  <c:v>8.6023100000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.4893400000000001E-4</c:v>
+                  <c:v>1.04471E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.12281E-4</c:v>
+                  <c:v>8.6023100000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>7.2352699999999996E-5</c:v>
+                  <c:v>4.0955399999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>2.38126E-5</c:v>
+                  <c:v>7.6193199999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>3.3045299999999999E-6</c:v>
+                  <c:v>4.4947600000000002E-7</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.57173E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
                   <c:v>0</c:v>
@@ -907,7 +908,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{00000005-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -916,7 +917,7 @@
           <c:order val="7"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$134:$Q$134</c:f>
+              <c:f>Ez!$A$116:$Q$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -926,44 +927,44 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>1.08738E-7</c:v>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.32217E-6</c:v>
+                  <c:v>1.79791E-7</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>1.20896E-5</c:v>
+                  <c:v>3.8096599999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>5.0438100000000001E-5</c:v>
+                  <c:v>2.76032E-5</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>1.12281E-4</c:v>
+                  <c:v>8.6023100000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>2.0359999999999999E-4</c:v>
+                  <c:v>1.5463400000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>3.4299599999999998E-4</c:v>
+                  <c:v>2.5972000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.0359999999999999E-4</c:v>
+                  <c:v>1.5463400000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.12281E-4</c:v>
+                  <c:v>8.6023100000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>5.0438100000000001E-5</c:v>
+                  <c:v>2.76032E-5</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.20896E-5</c:v>
+                  <c:v>3.8096599999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.32217E-6</c:v>
+                  <c:v>1.79791E-7</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1.08738E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
                   <c:v>0</c:v>
@@ -976,7 +977,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{00000006-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -985,59 +986,59 @@
           <c:order val="8"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$135:$Q$135</c:f>
+              <c:f>Ez!$A$117:$Q$117</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1399900000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0827399999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5727200000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5583700000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7209700000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1.4893400000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.4299599999999998E-4</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>5.6481600000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>7.6213899999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>7.3053399999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>3.5023800000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.04471E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>2.5972000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9159500000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4299599999999998E-4</c:v>
+                  <c:v>6.8232899999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>2.5972000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4893400000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.7209700000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5583700000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.5727200000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.3291999999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1399900000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
+                  <c:v>1.04471E-4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>3.5023800000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>7.3053399999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>7.6213899999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>5.6481600000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1045,7 +1046,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{00000007-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1054,7 +1055,7 @@
           <c:order val="9"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$136:$Q$136</c:f>
+              <c:f>Ez!$A$118:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1064,44 +1065,44 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>1.08738E-7</c:v>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.32217E-6</c:v>
+                  <c:v>1.79791E-7</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>1.20896E-5</c:v>
+                  <c:v>3.8096599999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>5.0438100000000001E-5</c:v>
+                  <c:v>2.76032E-5</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>1.12281E-4</c:v>
+                  <c:v>8.6023100000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>2.0359999999999999E-4</c:v>
+                  <c:v>1.5463400000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>3.4299599999999998E-4</c:v>
+                  <c:v>2.5972000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.0359999999999999E-4</c:v>
+                  <c:v>1.5463400000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.12281E-4</c:v>
+                  <c:v>8.6023100000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>5.0438100000000001E-5</c:v>
+                  <c:v>2.76032E-5</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.20896E-5</c:v>
+                  <c:v>3.8096599999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.32217E-6</c:v>
+                  <c:v>1.79791E-7</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>8.4091999999999996E-8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
                   <c:v>0</c:v>
@@ -1114,7 +1115,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{00000008-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1123,7 +1124,7 @@
           <c:order val="10"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$137:$Q$137</c:f>
+              <c:f>Ez!$A$119:$Q$119</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1136,38 +1137,38 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.57173E-7</c:v>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>3.3045299999999999E-6</c:v>
+                  <c:v>4.4947600000000002E-7</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.38126E-5</c:v>
+                  <c:v>7.6193199999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>7.2352699999999996E-5</c:v>
+                  <c:v>4.0955399999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.12281E-4</c:v>
+                  <c:v>8.6023100000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.4893400000000001E-4</c:v>
+                  <c:v>1.04471E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.12281E-4</c:v>
+                  <c:v>8.6023100000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>7.2352699999999996E-5</c:v>
+                  <c:v>4.0955399999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>2.38126E-5</c:v>
+                  <c:v>7.6193199999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>3.3045299999999999E-6</c:v>
+                  <c:v>4.4947600000000002E-7</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.57173E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
                   <c:v>0</c:v>
@@ -1183,7 +1184,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{00000009-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1192,7 +1193,7 @@
           <c:order val="11"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$138:$Q$138</c:f>
+              <c:f>Ez!$A$120:$Q$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1208,37 +1209,37 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>2.6195599999999999E-7</c:v>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.4060400000000001E-6</c:v>
+                  <c:v>5.9930199999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.38126E-5</c:v>
+                  <c:v>7.6193199999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>5.0438100000000001E-5</c:v>
+                  <c:v>2.76032E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>5.7209700000000002E-5</c:v>
+                  <c:v>3.5023800000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.0438100000000001E-5</c:v>
+                  <c:v>2.76032E-5</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>2.38126E-5</c:v>
+                  <c:v>7.6193199999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>4.4060400000000001E-6</c:v>
+                  <c:v>5.9930199999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>2.6195599999999999E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="0.00E+00">
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
@@ -1252,7 +1253,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{0000000A-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1261,7 +1262,7 @@
           <c:order val="12"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$139:$Q$139</c:f>
+              <c:f>Ez!$A$121:$Q$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1281,27 +1282,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.6195599999999999E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>3.3045299999999999E-6</c:v>
+                  <c:v>4.4947600000000002E-7</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.20896E-5</c:v>
+                  <c:v>3.8096599999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.5583700000000001E-5</c:v>
+                  <c:v>7.3053399999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.20896E-5</c:v>
+                  <c:v>3.8096599999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>3.3045299999999999E-6</c:v>
+                  <c:v>4.4947600000000002E-7</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>2.6195599999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
@@ -1321,7 +1322,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{0000000B-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1330,7 +1331,7 @@
           <c:order val="13"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$140:$Q$140</c:f>
+              <c:f>Ez!$A$122:$Q$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1346,35 +1347,35 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>1.57173E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.32217E-6</c:v>
+                  <c:v>1.79791E-7</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.5654999999999998E-6</c:v>
+                  <c:v>7.6213899999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.32217E-6</c:v>
+                  <c:v>1.79791E-7</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.64389E-7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>-7.2158500000000001E-9</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>7.2158500000000001E-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
                   <c:v>0</c:v>
@@ -1390,7 +1391,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{0000000C-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1399,59 +1400,59 @@
           <c:order val="14"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$141:$Q$141</c:f>
+              <c:f>Ez!$A$123:$Q$123</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.8531399999999992E-9</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6846000000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.06381E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7612199999999998E-8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3674399999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.03348E-7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.91279E-7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.6418699999999999E-9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0480600000000002E-8</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>5.6481600000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1459,7 +1460,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{0000000D-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1468,7 +1469,7 @@
           <c:order val="15"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$142:$Q$142</c:f>
+              <c:f>Ez!$A$124:$Q$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1478,13 +1479,13 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
@@ -1497,28 +1498,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.83124E-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>3.6972300000000001E-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>-1.7524000000000001E-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>7.3925300000000003E-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>-5.4088599999999999E-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.71356E-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>5.0490700000000002E-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>2.7795700000000001E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1528,7 +1529,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{0000000E-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1537,7 +1538,7 @@
           <c:order val="16"/>
           <c:val>
             <c:numRef>
-              <c:f>Ez!$A$143:$Q$143</c:f>
+              <c:f>Ez!$A$125:$Q$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1556,22 +1557,22 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -1597,7 +1598,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-4584-4F17-A484-EE8B9AB1CFED}"/>
+              <c16:uniqueId val="{0000000F-D542-40DA-89B6-0DBB575E31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1613,6 +1614,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1758,13 +1760,6 @@
         <c:crossAx val="862590144"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -3629,20 +3624,1815 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="90"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surfaceChart>
+        <c:wireframe val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$103:$Q$103</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$104:$Q$104</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$105:$Q$105</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5801699999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$106:$Q$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.95573E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.8861699999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.95573E-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$107:$Q$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>-1.59115E-9</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>-1.5385600000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>-3.5531500000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>-1.5385600000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>-1.59115E-9</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$108:$Q$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>-1.59115E-9</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>-2.2680499999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>-9.8571399999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>-1.6446999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>-9.8571399999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>-2.2680499999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>-1.59115E-9</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$109:$Q$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>-7.95573E-10</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>-1.459E-8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>-9.0480800000000004E-8</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>-2.60978E-7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>-5.1429099999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>-2.60978E-7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>-9.0480800000000004E-8</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>-1.459E-8</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>-7.95573E-10</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$110:$Q$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>-1.59115E-10</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>-3.2497099999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>-2.33957E-8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>-8.9294000000000005E-8</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>-3.4260699999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>-1.56585E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>-3.4260699999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>-8.9294000000000005E-8</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>-2.33957E-8</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>-3.2497099999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>-1.59115E-10</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$111:$Q$111</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.59115E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2497099999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33957E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9294000000000005E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4260699999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.56585E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4260699999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9294000000000005E-8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.33957E-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2497099999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.59115E-10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$112:$Q$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>7.95573E-10</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.459E-8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>9.0480800000000004E-8</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>2.60978E-7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>5.1429099999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>2.60978E-7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>9.0480800000000004E-8</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>1.459E-8</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>7.95573E-10</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$113:$Q$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.59115E-9</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>2.2680499999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>9.8571399999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>1.6446999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>9.8571399999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>2.2680499999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>1.59115E-9</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$114:$Q$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>1.59115E-9</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>1.5385600000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>3.5531500000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>1.5385600000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>1.59115E-9</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$115:$Q$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>7.95573E-10</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>3.8861699999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>7.95573E-10</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$116:$Q$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>1.5801699999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$117:$Q$117</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Hy!$A$118:$Q$118</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-EF07-4C09-8F27-467FE2E52C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="1305473536"/>
+        <c:axId val="1305479360"/>
+        <c:axId val="1480609280"/>
+      </c:surfaceChart>
+      <c:catAx>
+        <c:axId val="1305473536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305479360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1305479360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305473536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1480609280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305479360"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3678,6 +5468,41 @@
       <xdr:colOff>289560</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4046,8 +5871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="T110" sqref="T110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4057,7 +5882,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="12" customWidth="1"/>
     <col min="12" max="14" width="8.88671875" customWidth="1"/>
-    <col min="15" max="16" width="12.5546875" customWidth="1"/>
+    <col min="15" max="16" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" customWidth="1"/>
     <col min="18" max="20" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="21" max="30" width="12" bestFit="1" customWidth="1"/>
@@ -9050,7 +10875,7 @@
       <c r="N99" s="1">
         <v>1.1997000000000001E-7</v>
       </c>
-      <c r="O99" s="4">
+      <c r="O99" s="6">
         <v>0</v>
       </c>
       <c r="P99" s="1">
@@ -10259,22 +12084,22 @@
         <v>0</v>
       </c>
       <c r="I123" s="3">
-        <v>2.73913E-8</v>
+        <v>5.6481600000000001E-8</v>
       </c>
       <c r="J123" s="3">
         <v>0</v>
       </c>
       <c r="K123" s="3">
-        <v>2.9090300000000001E-8</v>
-      </c>
-      <c r="L123" s="2">
+        <v>0</v>
+      </c>
+      <c r="L123" s="3">
         <v>0</v>
       </c>
       <c r="M123" s="3">
-        <v>-2.9090300000000001E-8</v>
+        <v>0</v>
       </c>
       <c r="N123" s="3">
-        <v>2.9090300000000001E-8</v>
+        <v>0</v>
       </c>
       <c r="O123" s="3">
         <v>0</v>
@@ -10333,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="P124" s="3">
-        <v>3.4435200000000001E-8</v>
+        <v>0</v>
       </c>
       <c r="Q124" s="2">
         <v>0</v>
@@ -11114,22 +12939,22 @@
         <v>1.32217E-6</v>
       </c>
       <c r="I140" s="1">
-        <v>2.5654999999999998E-6</v>
+        <v>2.5727200000000001E-6</v>
       </c>
       <c r="J140" s="1">
         <v>1.32217E-6</v>
       </c>
       <c r="K140" s="1">
-        <v>1.64389E-7</v>
-      </c>
-      <c r="L140">
+        <v>1.57173E-7</v>
+      </c>
+      <c r="L140" s="1">
         <v>0</v>
       </c>
       <c r="M140" s="1">
-        <v>-7.2158500000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="N140" s="1">
-        <v>7.2158500000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="O140" s="1">
         <v>0</v>
@@ -11142,161 +12967,161 @@
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141" s="1">
-        <v>7.8531399999999992E-9</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141" s="1">
-        <v>0</v>
-      </c>
-      <c r="H141" s="1">
-        <v>4.6846000000000001E-8</v>
-      </c>
-      <c r="I141" s="1">
-        <v>2.06381E-7</v>
-      </c>
-      <c r="J141" s="1">
-        <v>9.7612199999999998E-8</v>
-      </c>
-      <c r="K141" s="1">
-        <v>2.3674399999999999E-7</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="M141" s="1">
-        <v>-2.03348E-7</v>
-      </c>
-      <c r="N141" s="1">
-        <v>1.91279E-7</v>
-      </c>
-      <c r="O141" s="1">
-        <v>6.6418699999999999E-9</v>
-      </c>
-      <c r="P141" s="1">
-        <v>4.0480600000000002E-8</v>
-      </c>
-      <c r="Q141">
+      <c r="A141" s="2">
+        <v>0</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141" s="2">
+        <v>0</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="3">
+        <v>9.6597699999999999E-8</v>
+      </c>
+      <c r="I141" s="3">
+        <v>4.3255500000000002E-7</v>
+      </c>
+      <c r="J141" s="3">
+        <v>9.6597699999999999E-8</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0</v>
+      </c>
+      <c r="L141" s="3">
+        <v>0</v>
+      </c>
+      <c r="M141" s="3">
+        <v>0</v>
+      </c>
+      <c r="N141" s="3">
+        <v>0</v>
+      </c>
+      <c r="O141" s="3">
+        <v>0</v>
+      </c>
+      <c r="P141" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>0</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142" s="1">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142" s="1">
-        <v>0</v>
-      </c>
-      <c r="G142" s="1">
-        <v>0</v>
-      </c>
-      <c r="H142" s="1">
-        <v>0</v>
-      </c>
-      <c r="I142" s="1">
-        <v>1.83124E-9</v>
-      </c>
-      <c r="J142" s="1">
-        <v>3.6972300000000001E-9</v>
-      </c>
-      <c r="K142" s="1">
-        <v>-1.7524000000000001E-9</v>
-      </c>
-      <c r="L142" s="1">
-        <v>7.3925300000000003E-9</v>
-      </c>
-      <c r="M142" s="1">
-        <v>-5.4088599999999999E-9</v>
-      </c>
-      <c r="N142" s="1">
-        <v>1.71356E-9</v>
-      </c>
-      <c r="O142" s="1">
-        <v>5.0490700000000002E-9</v>
-      </c>
-      <c r="P142" s="1">
-        <v>2.7795700000000001E-7</v>
-      </c>
-      <c r="Q142">
+      <c r="A142" s="2">
+        <v>0</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="2">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="3">
+        <v>1.1399900000000001E-8</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0</v>
+      </c>
+      <c r="K142" s="3">
+        <v>0</v>
+      </c>
+      <c r="L142" s="3">
+        <v>0</v>
+      </c>
+      <c r="M142" s="3">
+        <v>0</v>
+      </c>
+      <c r="N142" s="3">
+        <v>0</v>
+      </c>
+      <c r="O142" s="3">
+        <v>0</v>
+      </c>
+      <c r="P142" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>0</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143" s="1">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143" s="1">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-      <c r="N143">
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-      <c r="Q143">
+      <c r="A143" s="2">
+        <v>0</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0</v>
+      </c>
+      <c r="E143" s="2">
+        <v>0</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0</v>
+      </c>
+      <c r="I143" s="3">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2">
+        <v>0</v>
+      </c>
+      <c r="K143" s="3">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2">
+        <v>0</v>
+      </c>
+      <c r="M143" s="2">
+        <v>0</v>
+      </c>
+      <c r="N143" s="2">
+        <v>0</v>
+      </c>
+      <c r="O143" s="2">
+        <v>0</v>
+      </c>
+      <c r="P143" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="2">
         <v>0</v>
       </c>
     </row>
@@ -11962,22 +13787,22 @@
         <v>2.5936999999999999E-5</v>
       </c>
       <c r="I157" s="1">
-        <v>2.9261999999999999E-5</v>
+        <v>2.9263799999999999E-5</v>
       </c>
       <c r="J157" s="1">
         <v>2.5936999999999999E-5</v>
       </c>
       <c r="K157" s="1">
-        <v>1.19319E-5</v>
+        <v>1.1930099999999999E-5</v>
       </c>
       <c r="L157" s="1">
         <v>2.1880800000000001E-6</v>
       </c>
       <c r="M157" s="1">
-        <v>1.2905599999999999E-7</v>
+        <v>1.3085899999999999E-7</v>
       </c>
       <c r="N157" s="1">
-        <v>1.80232E-9</v>
+        <v>0</v>
       </c>
       <c r="O157" s="1">
         <v>0</v>
@@ -11999,11 +13824,11 @@
       <c r="C158">
         <v>0</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="1">
         <v>0</v>
       </c>
       <c r="E158" s="1">
-        <v>1.9479699999999998E-9</v>
+        <v>0</v>
       </c>
       <c r="F158" s="1">
         <v>1.04687E-7</v>
@@ -12012,31 +13837,31 @@
         <v>1.31321E-6</v>
       </c>
       <c r="H158" s="1">
-        <v>4.8572599999999998E-6</v>
+        <v>4.8713999999999996E-6</v>
       </c>
       <c r="I158" s="1">
-        <v>6.4144900000000003E-6</v>
+        <v>6.4778099999999999E-6</v>
       </c>
       <c r="J158" s="1">
-        <v>4.87166E-6</v>
+        <v>4.8713999999999996E-6</v>
       </c>
       <c r="K158" s="1">
-        <v>1.37916E-6</v>
+        <v>1.31321E-6</v>
       </c>
       <c r="L158" s="1">
         <v>1.04687E-7</v>
       </c>
       <c r="M158" s="1">
-        <v>-5.5862000000000001E-8</v>
+        <v>0</v>
       </c>
       <c r="N158" s="1">
-        <v>5.28806E-8</v>
+        <v>0</v>
       </c>
       <c r="O158" s="1">
-        <v>6.2303899999999996E-9</v>
+        <v>0</v>
       </c>
       <c r="P158" s="1">
-        <v>4.5558000000000003E-9</v>
+        <v>0</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -12053,43 +13878,43 @@
         <v>0</v>
       </c>
       <c r="D159" s="1">
-        <v>8.3438500000000003E-9</v>
+        <v>0</v>
       </c>
       <c r="E159" s="1">
-        <v>6.6679400000000006E-8</v>
+        <v>0</v>
       </c>
       <c r="F159" s="1">
-        <v>1.66185E-9</v>
+        <v>0</v>
       </c>
       <c r="G159" s="1">
-        <v>4.2671900000000001E-8</v>
+        <v>9.4438800000000005E-8</v>
       </c>
       <c r="H159" s="1">
-        <v>4.0173900000000002E-7</v>
+        <v>8.3412999999999997E-7</v>
       </c>
       <c r="I159" s="1">
-        <v>8.7288199999999997E-7</v>
+        <v>1.7339400000000001E-6</v>
       </c>
       <c r="J159" s="1">
-        <v>8.6500799999999999E-7</v>
+        <v>8.3412999999999997E-7</v>
       </c>
       <c r="K159" s="1">
-        <v>1.00907E-6</v>
+        <v>9.4438800000000005E-8</v>
       </c>
       <c r="L159" s="1">
-        <v>1.93282E-8</v>
+        <v>0</v>
       </c>
       <c r="M159" s="1">
-        <v>-6.6509499999999996E-7</v>
+        <v>0</v>
       </c>
       <c r="N159" s="1">
-        <v>5.9366699999999997E-7</v>
+        <v>0</v>
       </c>
       <c r="O159" s="1">
-        <v>1.5566300000000001E-7</v>
+        <v>0</v>
       </c>
       <c r="P159" s="1">
-        <v>3.49663E-7</v>
+        <v>0</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -12109,40 +13934,40 @@
         <v>0</v>
       </c>
       <c r="E160" s="1">
-        <v>5.2502100000000002E-10</v>
+        <v>0</v>
       </c>
       <c r="F160" s="1">
-        <v>1.0600000000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="G160" s="1">
-        <v>-1.0600000000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="H160" s="1">
-        <v>4.2724600000000004E-9</v>
+        <v>1.9998199999999999E-8</v>
       </c>
       <c r="I160" s="1">
-        <v>2.3474799999999999E-8</v>
+        <v>1.1165E-7</v>
       </c>
       <c r="J160" s="1">
-        <v>3.7320900000000002E-8</v>
+        <v>1.9998199999999999E-8</v>
       </c>
       <c r="K160" s="1">
-        <v>1.35266E-9</v>
+        <v>0</v>
       </c>
       <c r="L160" s="1">
-        <v>6.4195500000000001E-8</v>
+        <v>0</v>
       </c>
       <c r="M160" s="1">
-        <v>-4.2617499999999998E-8</v>
+        <v>0</v>
       </c>
       <c r="N160" s="1">
-        <v>2.05589E-8</v>
+        <v>0</v>
       </c>
       <c r="O160" s="1">
-        <v>4.8216599999999999E-8</v>
+        <v>0</v>
       </c>
       <c r="P160" s="1">
-        <v>1.18208E-6</v>
+        <v>0</v>
       </c>
       <c r="Q160">
         <v>0</v>
@@ -12825,16 +14650,16 @@
         <v>1.00831E-4</v>
       </c>
       <c r="K174" s="1">
-        <v>7.5346399999999994E-5</v>
+        <v>7.5346000000000007E-5</v>
       </c>
       <c r="L174" s="1">
         <v>3.6921500000000002E-5</v>
       </c>
       <c r="M174" s="1">
-        <v>8.9219699999999999E-6</v>
+        <v>8.9224199999999992E-6</v>
       </c>
       <c r="N174" s="3">
-        <v>9.7993899999999994E-7</v>
+        <v>9.7948799999999999E-7</v>
       </c>
       <c r="O174" s="3">
         <v>4.8569700000000001E-8</v>
@@ -12860,7 +14685,7 @@
         <v>5.8832799999999997E-8</v>
       </c>
       <c r="E175" s="1">
-        <v>1.2245099999999999E-6</v>
+        <v>1.22402E-6</v>
       </c>
       <c r="F175" s="1">
         <v>8.9224199999999992E-6</v>
@@ -12869,31 +14694,31 @@
         <v>2.81809E-5</v>
       </c>
       <c r="H175" s="1">
-        <v>4.39016E-5</v>
+        <v>4.3905600000000002E-5</v>
       </c>
       <c r="I175" s="1">
-        <v>5.0375199999999998E-5</v>
+        <v>5.0392800000000003E-5</v>
       </c>
       <c r="J175" s="1">
         <v>4.3905600000000002E-5</v>
       </c>
       <c r="K175" s="1">
-        <v>2.8199099999999999E-5</v>
+        <v>2.81809E-5</v>
       </c>
       <c r="L175" s="1">
         <v>8.9224199999999992E-6</v>
       </c>
       <c r="M175" s="1">
-        <v>1.2087200000000001E-6</v>
+        <v>1.22402E-6</v>
       </c>
       <c r="N175" s="3">
-        <v>7.3397799999999996E-8</v>
+        <v>5.8832799999999997E-8</v>
       </c>
       <c r="O175" s="3">
-        <v>3.50618E-9</v>
+        <v>0</v>
       </c>
       <c r="P175" s="3">
-        <v>5.1272099999999997E-10</v>
+        <v>0</v>
       </c>
       <c r="Q175" s="2">
         <v>0</v>
@@ -12910,43 +14735,43 @@
         <v>0</v>
       </c>
       <c r="D176" s="1">
-        <v>2.5562399999999998E-9</v>
+        <v>0</v>
       </c>
       <c r="E176" s="1">
-        <v>7.7322699999999994E-8</v>
+        <v>5.8832799999999997E-8</v>
       </c>
       <c r="F176" s="1">
-        <v>9.8038700000000003E-7</v>
+        <v>9.7948799999999999E-7</v>
       </c>
       <c r="G176" s="1">
-        <v>5.3893100000000001E-6</v>
+        <v>5.4056800000000001E-6</v>
       </c>
       <c r="H176" s="1">
-        <v>1.2056600000000001E-5</v>
+        <v>1.21938E-5</v>
       </c>
       <c r="I176" s="1">
-        <v>1.38225E-5</v>
+        <v>1.4096200000000001E-5</v>
       </c>
       <c r="J176" s="1">
-        <v>1.22024E-5</v>
+        <v>1.21938E-5</v>
       </c>
       <c r="K176" s="1">
-        <v>5.69188E-6</v>
+        <v>5.4056800000000001E-6</v>
       </c>
       <c r="L176" s="1">
-        <v>9.8680200000000008E-7</v>
+        <v>9.7948799999999999E-7</v>
       </c>
       <c r="M176" s="1">
-        <v>-1.42094E-7</v>
+        <v>5.8832799999999997E-8</v>
       </c>
       <c r="N176" s="3">
-        <v>1.81119E-7</v>
+        <v>0</v>
       </c>
       <c r="O176" s="3">
-        <v>9.8070200000000002E-8</v>
+        <v>0</v>
       </c>
       <c r="P176" s="3">
-        <v>4.9397899999999998E-8</v>
+        <v>0</v>
       </c>
       <c r="Q176" s="2">
         <v>0</v>
@@ -12960,46 +14785,46 @@
         <v>0</v>
       </c>
       <c r="C177" s="3">
-        <v>3.9282799999999996E-9</v>
+        <v>0</v>
       </c>
       <c r="D177" s="1">
-        <v>8.8789899999999998E-8</v>
+        <v>0</v>
       </c>
       <c r="E177" s="1">
-        <v>2.7319000000000003E-7</v>
+        <v>0</v>
       </c>
       <c r="F177" s="1">
-        <v>4.5872500000000003E-8</v>
+        <v>6.9271300000000002E-8</v>
       </c>
       <c r="G177" s="1">
-        <v>4.0733700000000002E-7</v>
+        <v>9.0780999999999997E-7</v>
       </c>
       <c r="H177" s="1">
-        <v>1.7658600000000001E-6</v>
+        <v>3.5789600000000001E-6</v>
       </c>
       <c r="I177" s="1">
-        <v>2.9143799999999999E-6</v>
+        <v>5.0330199999999996E-6</v>
       </c>
       <c r="J177" s="1">
-        <v>3.8131399999999998E-6</v>
+        <v>3.5789600000000001E-6</v>
       </c>
       <c r="K177" s="1">
-        <v>3.0745899999999999E-6</v>
+        <v>9.0780999999999997E-7</v>
       </c>
       <c r="L177" s="1">
-        <v>2.1169799999999999E-7</v>
+        <v>6.9271300000000002E-8</v>
       </c>
       <c r="M177" s="1">
-        <v>-1.2910199999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="N177" s="3">
-        <v>1.2496099999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="O177" s="3">
-        <v>1.3103599999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="P177" s="3">
-        <v>1.5347600000000001E-6</v>
+        <v>0</v>
       </c>
       <c r="Q177" s="2">
         <v>0</v>
@@ -13016,43 +14841,43 @@
         <v>0</v>
       </c>
       <c r="D178" s="1">
-        <v>5.8092600000000005E-10</v>
+        <v>0</v>
       </c>
       <c r="E178" s="1">
-        <v>6.54569E-9</v>
+        <v>0</v>
       </c>
       <c r="F178" s="1">
-        <v>1.06158E-8</v>
+        <v>0</v>
       </c>
       <c r="G178" s="1">
-        <v>-7.4211200000000001E-9</v>
+        <v>1.99407E-8</v>
       </c>
       <c r="H178" s="1">
-        <v>5.0985600000000002E-8</v>
+        <v>2.1573299999999999E-7</v>
       </c>
       <c r="I178" s="1">
-        <v>1.5244200000000001E-7</v>
+        <v>5.6970700000000001E-7</v>
       </c>
       <c r="J178" s="1">
-        <v>2.07196E-7</v>
+        <v>2.1573299999999999E-7</v>
       </c>
       <c r="K178" s="1">
-        <v>1.14942E-7</v>
+        <v>1.99407E-8</v>
       </c>
       <c r="L178" s="1">
-        <v>2.7954900000000001E-7</v>
+        <v>0</v>
       </c>
       <c r="M178" s="1">
-        <v>-1.43845E-7</v>
+        <v>0</v>
       </c>
       <c r="N178" s="3">
-        <v>1.31331E-7</v>
+        <v>0</v>
       </c>
       <c r="O178" s="3">
-        <v>4.0229199999999999E-7</v>
+        <v>0</v>
       </c>
       <c r="P178" s="3">
-        <v>3.59924E-6</v>
+        <v>0</v>
       </c>
       <c r="Q178" s="2">
         <v>0</v>
@@ -14810,7 +16635,7 @@
       <c r="B159">
         <v>0</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>0</v>
       </c>
     </row>
@@ -14986,7 +16811,7 @@
       <c r="B176">
         <v>0</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>0</v>
       </c>
     </row>
@@ -14994,11 +16819,11 @@
       <c r="A177">
         <v>0</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>0</v>
       </c>
       <c r="C177" s="1">
-        <v>-8.4781500000000003E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -15038,7 +16863,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -16506,7 +18331,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>2.9558600000000002E-9</v>
+        <v>0</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -16520,10 +18345,10 @@
         <v>0</v>
       </c>
       <c r="B142" s="1">
-        <v>-1.3288699999999999E-7</v>
+        <v>0</v>
       </c>
       <c r="C142" s="1">
-        <v>1.0369800000000001E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -16682,7 +18507,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>7.3320000000000001E-10</v>
+        <v>0</v>
       </c>
       <c r="B158" s="1">
         <v>0</v>
@@ -16693,24 +18518,24 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>2.17122E-8</v>
+        <v>0</v>
       </c>
       <c r="B159" s="1">
-        <v>-1.30585E-7</v>
+        <v>0</v>
       </c>
       <c r="C159" s="1">
-        <v>1.21903E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>-3.38919E-10</v>
+        <v>0</v>
       </c>
       <c r="B160" s="1">
-        <v>-1.1749899999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="C160" s="1">
-        <v>9.2023500000000001E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -16858,7 +18683,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>1.8313299999999999E-10</v>
+        <v>0</v>
       </c>
       <c r="B175" s="1">
         <v>0</v>
@@ -16869,35 +18694,35 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>5.4721799999999996E-9</v>
+        <v>0</v>
       </c>
       <c r="B176" s="1">
-        <v>6.4623199999999997E-9</v>
+        <v>0</v>
       </c>
       <c r="C176" s="1">
-        <v>1.37192E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>6.6184299999999995E-8</v>
+        <v>0</v>
       </c>
       <c r="B177" s="1">
-        <v>-8.6837000000000004E-7</v>
+        <v>0</v>
       </c>
       <c r="C177" s="1">
-        <v>1.1507799999999999E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>-3.1486899999999998E-9</v>
+        <v>0</v>
       </c>
       <c r="B178" s="1">
-        <v>-5.4528200000000003E-6</v>
+        <v>0</v>
       </c>
       <c r="C178" s="1">
-        <v>4.2980299999999997E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -19375,7 +21200,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>-2.4970600000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -19386,10 +21211,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>-1.8982399999999998E-9</v>
+        <v>0</v>
       </c>
       <c r="B142" s="1">
-        <v>2.1184499999999999E-9</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -19551,7 +21376,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>-6.1939600000000002E-10</v>
+        <v>0</v>
       </c>
       <c r="B158" s="1">
         <v>0</v>
@@ -19562,10 +21387,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>-2.2648499999999999E-8</v>
+        <v>0</v>
       </c>
       <c r="B159" s="1">
-        <v>2.1729999999999998E-9</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -19573,10 +21398,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>-1.8353600000000002E-8</v>
+        <v>0</v>
       </c>
       <c r="B160" s="1">
-        <v>2.05417E-8</v>
+        <v>0</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -19727,7 +21552,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>-1.5470800000000001E-10</v>
+        <v>0</v>
       </c>
       <c r="B175" s="1">
         <v>0</v>
@@ -19738,10 +21563,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>-5.1359999999999996E-9</v>
+        <v>0</v>
       </c>
       <c r="B176" s="1">
-        <v>-1.74303E-11</v>
+        <v>0</v>
       </c>
       <c r="C176" s="1">
         <v>0</v>
@@ -19749,10 +21574,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>-9.0455800000000002E-8</v>
+        <v>0</v>
       </c>
       <c r="B177" s="1">
-        <v>1.7843099999999998E-8</v>
+        <v>0</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -19760,10 +21585,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>-9.3173199999999994E-8</v>
+        <v>0</v>
       </c>
       <c r="B178" s="1">
-        <v>1.0453E-7</v>
+        <v>0</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -21266,7 +23091,7 @@
         <v>0</v>
       </c>
       <c r="B141" s="1">
-        <v>9.1747499999999998E-10</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -21277,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="B142" s="1">
-        <v>-1.83495E-9</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -21439,10 +23264,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>5.1655599999999999E-10</v>
+        <v>0</v>
       </c>
       <c r="B158" s="1">
-        <v>1.07855E-9</v>
+        <v>0</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -21450,10 +23275,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>-6.4043200000000005E-10</v>
+        <v>0</v>
       </c>
       <c r="B159" s="1">
-        <v>6.8034899999999996E-9</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -21461,10 +23286,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>-2.6880300000000002E-10</v>
+        <v>0</v>
       </c>
       <c r="B160" s="1">
-        <v>-1.6842599999999999E-8</v>
+        <v>0</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -21615,10 +23440,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>4.8455399999999998E-10</v>
+        <v>0</v>
       </c>
       <c r="B175" s="1">
-        <v>1.2138199999999999E-10</v>
+        <v>0</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -21626,10 +23451,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>1.21472E-8</v>
+        <v>0</v>
       </c>
       <c r="B176" s="1">
-        <v>1.0901300000000001E-8</v>
+        <v>0</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -21637,10 +23462,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>-2.1230400000000001E-8</v>
+        <v>0</v>
       </c>
       <c r="B177" s="1">
-        <v>2.3854599999999999E-8</v>
+        <v>0</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -21648,10 +23473,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>4.0809599999999999E-9</v>
+        <v>0</v>
       </c>
       <c r="B178" s="1">
-        <v>-8.0898500000000001E-8</v>
+        <v>0</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -23344,7 +25169,7 @@
       <c r="B159">
         <v>0</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>0</v>
       </c>
     </row>
@@ -23520,7 +25345,7 @@
       <c r="B176">
         <v>0</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>0</v>
       </c>
     </row>
@@ -23528,11 +25353,11 @@
       <c r="A177">
         <v>0</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>0</v>
       </c>
       <c r="C177" s="1">
-        <v>-7.1622199999999995E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -23542,7 +25367,7 @@
       <c r="B178">
         <v>0</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>0</v>
       </c>
     </row>
@@ -25417,7 +27242,7 @@
       <c r="B176">
         <v>0</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>0</v>
       </c>
     </row>
@@ -25428,7 +27253,7 @@
       <c r="B177">
         <v>0</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>0</v>
       </c>
     </row>
@@ -25439,7 +27264,7 @@
       <c r="B178">
         <v>0</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>0</v>
       </c>
     </row>
@@ -25469,8 +27294,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="8.88671875" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="16" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -32146,25 +33971,25 @@
         <v>0</v>
       </c>
       <c r="H141" s="1">
-        <v>-3.3439000000000001E-11</v>
+        <v>-6.8952300000000001E-11</v>
       </c>
       <c r="I141" s="1">
-        <v>3.6365200000000001E-11</v>
+        <v>6.8952300000000001E-11</v>
       </c>
       <c r="J141" s="1">
-        <v>-3.8439300000000002E-11</v>
+        <v>0</v>
       </c>
       <c r="K141" s="1">
-        <v>3.5513200000000001E-11</v>
+        <v>0</v>
       </c>
       <c r="L141" s="1">
-        <v>3.5513200000000001E-11</v>
+        <v>0</v>
       </c>
       <c r="M141" s="1">
-        <v>-7.1026400000000002E-11</v>
+        <v>0</v>
       </c>
       <c r="N141" s="1">
-        <v>3.83162E-11</v>
+        <v>0</v>
       </c>
       <c r="O141" s="1">
         <v>0</v>
@@ -32208,19 +34033,19 @@
         <v>0</v>
       </c>
       <c r="L142" s="1">
-        <v>2.9261200000000001E-12</v>
+        <v>0</v>
       </c>
       <c r="M142" s="1">
-        <v>-2.9261200000000001E-12</v>
+        <v>0</v>
       </c>
       <c r="N142" s="1">
         <v>0</v>
       </c>
       <c r="O142" s="1">
-        <v>-2.9127499999999998E-11</v>
+        <v>0</v>
       </c>
       <c r="P142" s="1">
-        <v>8.3742700000000004E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
@@ -32946,25 +34771,25 @@
         <v>-1.78358E-9</v>
       </c>
       <c r="H158" s="1">
-        <v>-2.5804900000000001E-9</v>
+        <v>-2.59006E-9</v>
       </c>
       <c r="I158" s="1">
-        <v>2.5804900000000001E-9</v>
+        <v>2.59006E-9</v>
       </c>
       <c r="J158" s="1">
-        <v>1.77401E-9</v>
+        <v>1.78358E-9</v>
       </c>
       <c r="K158" s="1">
-        <v>2.18028E-10</v>
+        <v>2.0845800000000001E-10</v>
       </c>
       <c r="L158" s="1">
-        <v>9.5703199999999996E-12</v>
+        <v>0</v>
       </c>
       <c r="M158" s="1">
-        <v>-1.9140599999999999E-11</v>
+        <v>0</v>
       </c>
       <c r="N158" s="1">
-        <v>9.5043200000000004E-12</v>
+        <v>0</v>
       </c>
       <c r="O158" s="1">
         <v>0</v>
@@ -32980,47 +34805,47 @@
       <c r="B159">
         <v>0</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>0</v>
       </c>
       <c r="D159" s="1">
-        <v>-9.5870399999999999E-12</v>
+        <v>0</v>
       </c>
       <c r="E159" s="1">
-        <v>9.5870399999999999E-12</v>
+        <v>0</v>
       </c>
       <c r="F159" s="1">
         <v>0</v>
       </c>
       <c r="G159" s="1">
-        <v>-5.7189100000000002E-11</v>
+        <v>-1.1792599999999999E-10</v>
       </c>
       <c r="H159" s="1">
-        <v>-2.27914E-10</v>
+        <v>-4.7908600000000001E-10</v>
       </c>
       <c r="I159" s="1">
-        <v>1.94819E-10</v>
+        <v>4.7908600000000001E-10</v>
       </c>
       <c r="J159" s="1">
-        <v>-2.34389E-10</v>
+        <v>1.1792599999999999E-10</v>
       </c>
       <c r="K159" s="1">
-        <v>3.24528E-10</v>
+        <v>0</v>
       </c>
       <c r="L159" s="1">
-        <v>2.83759E-10</v>
+        <v>0</v>
       </c>
       <c r="M159" s="1">
-        <v>-5.5278399999999996E-10</v>
+        <v>0</v>
       </c>
       <c r="N159" s="1">
-        <v>2.81451E-10</v>
+        <v>0</v>
       </c>
       <c r="O159" s="1">
-        <v>-2.8623E-11</v>
+        <v>0</v>
       </c>
       <c r="P159" s="1">
-        <v>9.8444500000000001E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
@@ -33046,31 +34871,31 @@
         <v>0</v>
       </c>
       <c r="H160" s="1">
-        <v>-1.0193300000000001E-12</v>
+        <v>-6.3455099999999997E-12</v>
       </c>
       <c r="I160" s="1">
-        <v>-1.0386700000000001E-12</v>
+        <v>6.3455099999999997E-12</v>
       </c>
       <c r="J160" s="1">
-        <v>3.0334299999999999E-12</v>
+        <v>0</v>
       </c>
       <c r="K160" s="1">
-        <v>-4.8069099999999998E-12</v>
+        <v>0</v>
       </c>
       <c r="L160" s="1">
-        <v>3.5721400000000001E-11</v>
+        <v>0</v>
       </c>
       <c r="M160" s="1">
-        <v>-3.2989400000000003E-11</v>
+        <v>0</v>
       </c>
       <c r="N160" s="1">
-        <v>-4.3933400000000003E-12</v>
+        <v>0</v>
       </c>
       <c r="O160" s="1">
-        <v>-2.5754699999999998E-10</v>
+        <v>0</v>
       </c>
       <c r="P160" s="1">
-        <v>7.4315099999999997E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
@@ -33746,25 +35571,25 @@
         <v>-3.5480999999999999E-8</v>
       </c>
       <c r="H175" s="1">
-        <v>-1.693E-8</v>
+        <v>-1.6932400000000001E-8</v>
       </c>
       <c r="I175" s="3">
-        <v>1.693E-8</v>
+        <v>1.6932400000000001E-8</v>
       </c>
       <c r="J175" s="1">
-        <v>3.5478600000000001E-8</v>
+        <v>3.5480999999999999E-8</v>
       </c>
       <c r="K175" s="1">
-        <v>1.7554700000000001E-8</v>
+        <v>1.75523E-8</v>
       </c>
       <c r="L175" s="1">
-        <v>3.0783E-9</v>
+        <v>3.07591E-9</v>
       </c>
       <c r="M175" s="1">
-        <v>1.68776E-10</v>
+        <v>1.7355699999999999E-10</v>
       </c>
       <c r="N175" s="3">
-        <v>2.37392E-12</v>
+        <v>0</v>
       </c>
       <c r="O175" s="3">
         <v>0</v>
@@ -33780,97 +35605,97 @@
       <c r="B176" s="2">
         <v>0</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="3">
         <v>0</v>
       </c>
       <c r="D176" s="3">
-        <v>-2.5835700000000001E-12</v>
+        <v>0</v>
       </c>
       <c r="E176" s="3">
-        <v>-1.3626199999999999E-10</v>
+        <v>-1.38845E-10</v>
       </c>
       <c r="F176" s="3">
         <v>-1.81131E-9</v>
       </c>
       <c r="G176" s="3">
-        <v>-6.48403E-9</v>
+        <v>-6.5027799999999997E-9</v>
       </c>
       <c r="H176" s="1">
-        <v>-4.6458300000000003E-9</v>
+        <v>-4.7206300000000001E-9</v>
       </c>
       <c r="I176" s="3">
-        <v>4.6267399999999997E-9</v>
+        <v>4.7206300000000001E-9</v>
       </c>
       <c r="J176" s="1">
-        <v>6.4060800000000003E-9</v>
+        <v>6.5027799999999997E-9</v>
       </c>
       <c r="K176" s="1">
-        <v>1.9083499999999999E-9</v>
+        <v>1.81131E-9</v>
       </c>
       <c r="L176" s="1">
-        <v>2.22505E-10</v>
+        <v>1.38845E-10</v>
       </c>
       <c r="M176" s="1">
-        <v>-1.6336500000000001E-10</v>
+        <v>0</v>
       </c>
       <c r="N176" s="3">
-        <v>7.0934799999999999E-11</v>
+        <v>0</v>
       </c>
       <c r="O176" s="3">
-        <v>1.41648E-12</v>
+        <v>0</v>
       </c>
       <c r="P176" s="3">
-        <v>1.10792E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>0</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="3">
         <v>0</v>
       </c>
       <c r="C177" s="3">
-        <v>-1.09901E-11</v>
+        <v>0</v>
       </c>
       <c r="D177" s="3">
-        <v>-8.0802500000000004E-11</v>
+        <v>0</v>
       </c>
       <c r="E177" s="3">
-        <v>8.8979000000000004E-11</v>
+        <v>0</v>
       </c>
       <c r="F177" s="3">
-        <v>-5.0045E-11</v>
+        <v>-1.1529E-10</v>
       </c>
       <c r="G177" s="3">
-        <v>-4.9561200000000003E-10</v>
+        <v>-1.0209299999999999E-9</v>
       </c>
       <c r="H177" s="1">
-        <v>-8.00491E-10</v>
+        <v>-1.57757E-9</v>
       </c>
       <c r="I177" s="3">
-        <v>3.2253099999999998E-10</v>
+        <v>1.57757E-9</v>
       </c>
       <c r="J177" s="1">
-        <v>-5.3281900000000002E-10</v>
+        <v>1.0209299999999999E-9</v>
       </c>
       <c r="K177" s="1">
-        <v>1.5327999999999999E-9</v>
+        <v>1.1529E-10</v>
       </c>
       <c r="L177" s="1">
-        <v>1.1193000000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="M177" s="1">
-        <v>-2.0894699999999998E-9</v>
+        <v>0</v>
       </c>
       <c r="N177" s="3">
-        <v>8.5793299999999998E-10</v>
+        <v>0</v>
       </c>
       <c r="O177" s="3">
-        <v>-1.9033799999999999E-10</v>
+        <v>0</v>
       </c>
       <c r="P177" s="3">
-        <v>9.2932900000000003E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
@@ -33884,43 +35709,43 @@
         <v>0</v>
       </c>
       <c r="D178" s="3">
-        <v>-2.9224299999999999E-13</v>
+        <v>0</v>
       </c>
       <c r="E178" s="3">
-        <v>-2.9778700000000002E-13</v>
+        <v>0</v>
       </c>
       <c r="F178" s="3">
-        <v>1.1800599999999999E-12</v>
+        <v>0</v>
       </c>
       <c r="G178" s="3">
-        <v>-2.9682099999999999E-12</v>
+        <v>-1.1131600000000001E-11</v>
       </c>
       <c r="H178" s="1">
-        <v>-1.16887E-11</v>
+        <v>-5.7361500000000003E-11</v>
       </c>
       <c r="I178" s="3">
-        <v>-8.7262300000000001E-12</v>
+        <v>5.7361500000000003E-11</v>
       </c>
       <c r="J178" s="1">
-        <v>2.2976799999999999E-11</v>
+        <v>1.1131600000000001E-11</v>
       </c>
       <c r="K178" s="1">
-        <v>-3.71967E-11</v>
+        <v>0</v>
       </c>
       <c r="L178" s="1">
-        <v>2.1327700000000001E-10</v>
+        <v>0</v>
       </c>
       <c r="M178" s="1">
-        <v>-1.9071600000000001E-10</v>
+        <v>0</v>
       </c>
       <c r="N178" s="3">
-        <v>-4.08158E-11</v>
+        <v>0</v>
       </c>
       <c r="O178" s="3">
-        <v>-1.1952100000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="P178" s="3">
-        <v>3.4709400000000002E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
@@ -33955,13 +35780,13 @@
         <v>0</v>
       </c>
       <c r="K179" s="1">
-        <v>1.92381E-14</v>
+        <v>0</v>
       </c>
       <c r="L179" s="1">
-        <v>1.96031E-14</v>
+        <v>0</v>
       </c>
       <c r="M179" s="1">
-        <v>-7.7682199999999998E-14</v>
+        <v>0</v>
       </c>
       <c r="N179" s="2">
         <v>0</v>
@@ -33996,8 +35821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39099,172 +40924,172 @@
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>0</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1">
-        <v>0</v>
-      </c>
-      <c r="F103" s="1">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0</v>
-      </c>
-      <c r="H103" s="1">
-        <v>0</v>
-      </c>
-      <c r="I103" s="1">
-        <v>0</v>
-      </c>
-      <c r="J103" s="1">
-        <v>0</v>
-      </c>
-      <c r="K103" s="1">
-        <v>0</v>
-      </c>
-      <c r="L103" s="1">
-        <v>0</v>
-      </c>
-      <c r="M103" s="1">
-        <v>0</v>
-      </c>
-      <c r="N103" s="1">
-        <v>0</v>
-      </c>
-      <c r="O103" s="1">
-        <v>0</v>
-      </c>
-      <c r="P103" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q103">
+      <c r="A103" s="2">
+        <v>0</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="3">
+        <v>0</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0</v>
+      </c>
+      <c r="K103" s="3">
+        <v>0</v>
+      </c>
+      <c r="L103" s="3">
+        <v>0</v>
+      </c>
+      <c r="M103" s="3">
+        <v>0</v>
+      </c>
+      <c r="N103" s="3">
+        <v>0</v>
+      </c>
+      <c r="O103" s="3">
+        <v>0</v>
+      </c>
+      <c r="P103" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>0</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0</v>
-      </c>
-      <c r="D104" s="1">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1">
-        <v>0</v>
-      </c>
-      <c r="F104" s="1">
-        <v>0</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0</v>
-      </c>
-      <c r="H104" s="1">
-        <v>0</v>
-      </c>
-      <c r="I104" s="1">
-        <v>0</v>
-      </c>
-      <c r="J104" s="1">
-        <v>0</v>
-      </c>
-      <c r="K104" s="1">
-        <v>0</v>
-      </c>
-      <c r="L104" s="1">
-        <v>0</v>
-      </c>
-      <c r="M104" s="1">
-        <v>0</v>
-      </c>
-      <c r="N104" s="1">
-        <v>0</v>
-      </c>
-      <c r="O104" s="1">
-        <v>0</v>
-      </c>
-      <c r="P104" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q104">
+      <c r="A104" s="2">
+        <v>0</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0</v>
+      </c>
+      <c r="L104" s="3">
+        <v>0</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0</v>
+      </c>
+      <c r="N104" s="3">
+        <v>0</v>
+      </c>
+      <c r="O104" s="3">
+        <v>0</v>
+      </c>
+      <c r="P104" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>0</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1">
-        <v>0</v>
-      </c>
-      <c r="E105" s="1">
-        <v>0</v>
-      </c>
-      <c r="F105" s="1">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0</v>
-      </c>
-      <c r="I105" s="1">
+      <c r="A105" s="2">
+        <v>0</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3">
         <v>-1.5801699999999999E-10</v>
       </c>
-      <c r="J105" s="1">
-        <v>0</v>
-      </c>
-      <c r="K105" s="1">
-        <v>0</v>
-      </c>
-      <c r="L105" s="1">
-        <v>0</v>
-      </c>
-      <c r="M105" s="1">
-        <v>0</v>
-      </c>
-      <c r="N105" s="1">
-        <v>0</v>
-      </c>
-      <c r="O105" s="1">
-        <v>0</v>
-      </c>
-      <c r="P105" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q105">
+      <c r="J105" s="3">
+        <v>0</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0</v>
+      </c>
+      <c r="L105" s="3">
+        <v>0</v>
+      </c>
+      <c r="M105" s="3">
+        <v>0</v>
+      </c>
+      <c r="N105" s="3">
+        <v>0</v>
+      </c>
+      <c r="O105" s="3">
+        <v>0</v>
+      </c>
+      <c r="P105" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>0</v>
-      </c>
-      <c r="C106" s="1">
+      <c r="A106" s="2">
+        <v>0</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
+      <c r="C106" s="3">
         <v>0</v>
       </c>
       <c r="D106" s="1">
@@ -39300,24 +41125,24 @@
       <c r="N106" s="1">
         <v>0</v>
       </c>
-      <c r="O106" s="1">
-        <v>0</v>
-      </c>
-      <c r="P106" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q106">
+      <c r="O106" s="3">
+        <v>0</v>
+      </c>
+      <c r="P106" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>0</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
+      <c r="A107" s="2">
+        <v>0</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2">
         <v>0</v>
       </c>
       <c r="D107" s="1">
@@ -39353,24 +41178,24 @@
       <c r="N107" s="1">
         <v>0</v>
       </c>
-      <c r="O107" s="1">
-        <v>0</v>
-      </c>
-      <c r="P107" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q107">
+      <c r="O107" s="3">
+        <v>0</v>
+      </c>
+      <c r="P107" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>0</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1">
+      <c r="A108" s="2">
+        <v>0</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+      <c r="C108" s="3">
         <v>0</v>
       </c>
       <c r="D108">
@@ -39406,24 +41231,24 @@
       <c r="N108" s="1">
         <v>0</v>
       </c>
-      <c r="O108" s="1">
-        <v>0</v>
-      </c>
-      <c r="P108" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q108">
+      <c r="O108" s="3">
+        <v>0</v>
+      </c>
+      <c r="P108" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>0</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
+      <c r="A109" s="2">
+        <v>0</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2">
         <v>0</v>
       </c>
       <c r="D109">
@@ -39459,24 +41284,24 @@
       <c r="N109" s="1">
         <v>0</v>
       </c>
-      <c r="O109" s="1">
-        <v>0</v>
-      </c>
-      <c r="P109" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="1">
+      <c r="O109" s="3">
+        <v>0</v>
+      </c>
+      <c r="P109" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>0</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
+      <c r="A110" s="2">
+        <v>0</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2">
         <v>0</v>
       </c>
       <c r="D110" s="1">
@@ -39512,24 +41337,24 @@
       <c r="N110" s="1">
         <v>-1.59115E-10</v>
       </c>
-      <c r="O110" s="1">
-        <v>0</v>
-      </c>
-      <c r="P110" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="1">
+      <c r="O110" s="3">
+        <v>0</v>
+      </c>
+      <c r="P110" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>0</v>
-      </c>
-      <c r="C111">
+      <c r="A111" s="2">
+        <v>0</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2">
         <v>0</v>
       </c>
       <c r="D111" s="1">
@@ -39565,24 +41390,24 @@
       <c r="N111" s="1">
         <v>1.59115E-10</v>
       </c>
-      <c r="O111" s="1">
-        <v>0</v>
-      </c>
-      <c r="P111" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q111">
+      <c r="O111" s="3">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>0</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
+      <c r="A112" s="2">
+        <v>0</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2">
         <v>0</v>
       </c>
       <c r="D112">
@@ -39618,24 +41443,24 @@
       <c r="N112" s="1">
         <v>0</v>
       </c>
-      <c r="O112" s="1">
-        <v>0</v>
-      </c>
-      <c r="P112" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q112">
+      <c r="O112" s="3">
+        <v>0</v>
+      </c>
+      <c r="P112" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>0</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
+      <c r="A113" s="2">
+        <v>0</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2">
         <v>0</v>
       </c>
       <c r="D113">
@@ -39671,24 +41496,24 @@
       <c r="N113" s="1">
         <v>0</v>
       </c>
-      <c r="O113" s="1">
-        <v>0</v>
-      </c>
-      <c r="P113" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q113">
+      <c r="O113" s="3">
+        <v>0</v>
+      </c>
+      <c r="P113" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>0</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
+      <c r="A114" s="2">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0</v>
+      </c>
+      <c r="C114" s="2">
         <v>0</v>
       </c>
       <c r="D114">
@@ -39724,24 +41549,24 @@
       <c r="N114" s="1">
         <v>0</v>
       </c>
-      <c r="O114" s="1">
-        <v>0</v>
-      </c>
-      <c r="P114" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q114">
+      <c r="O114" s="3">
+        <v>0</v>
+      </c>
+      <c r="P114" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>0</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115">
+      <c r="A115" s="2">
+        <v>0</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2">
         <v>0</v>
       </c>
       <c r="D115">
@@ -39777,172 +41602,172 @@
       <c r="N115" s="1">
         <v>0</v>
       </c>
-      <c r="O115" s="1">
-        <v>0</v>
-      </c>
-      <c r="P115" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="1">
+      <c r="O115" s="3">
+        <v>0</v>
+      </c>
+      <c r="P115" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>0</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116" s="1">
-        <v>0</v>
-      </c>
-      <c r="E116" s="1">
-        <v>0</v>
-      </c>
-      <c r="F116" s="1">
-        <v>0</v>
-      </c>
-      <c r="G116" s="1">
-        <v>0</v>
-      </c>
-      <c r="H116" s="1">
-        <v>0</v>
-      </c>
-      <c r="I116" s="1">
+      <c r="A116" s="2">
+        <v>0</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="3">
         <v>1.5801699999999999E-10</v>
       </c>
-      <c r="J116" s="1">
-        <v>0</v>
-      </c>
-      <c r="K116" s="1">
-        <v>0</v>
-      </c>
-      <c r="L116" s="1">
-        <v>0</v>
-      </c>
-      <c r="M116" s="1">
-        <v>0</v>
-      </c>
-      <c r="N116" s="1">
-        <v>0</v>
-      </c>
-      <c r="O116" s="1">
-        <v>0</v>
-      </c>
-      <c r="P116" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q116">
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0</v>
+      </c>
+      <c r="L116" s="3">
+        <v>0</v>
+      </c>
+      <c r="M116" s="3">
+        <v>0</v>
+      </c>
+      <c r="N116" s="3">
+        <v>0</v>
+      </c>
+      <c r="O116" s="3">
+        <v>0</v>
+      </c>
+      <c r="P116" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>0</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1">
-        <v>0</v>
-      </c>
-      <c r="E117" s="1">
-        <v>0</v>
-      </c>
-      <c r="F117" s="1">
-        <v>0</v>
-      </c>
-      <c r="G117" s="1">
-        <v>0</v>
-      </c>
-      <c r="H117" s="1">
-        <v>0</v>
-      </c>
-      <c r="I117" s="1">
-        <v>0</v>
-      </c>
-      <c r="J117" s="1">
-        <v>0</v>
-      </c>
-      <c r="K117" s="1">
-        <v>0</v>
-      </c>
-      <c r="L117" s="1">
-        <v>0</v>
-      </c>
-      <c r="M117" s="1">
-        <v>0</v>
-      </c>
-      <c r="N117" s="1">
-        <v>0</v>
-      </c>
-      <c r="O117" s="1">
-        <v>0</v>
-      </c>
-      <c r="P117" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="1">
+      <c r="A117" s="2">
+        <v>0</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
+      </c>
+      <c r="L117" s="3">
+        <v>0</v>
+      </c>
+      <c r="M117" s="3">
+        <v>0</v>
+      </c>
+      <c r="N117" s="3">
+        <v>0</v>
+      </c>
+      <c r="O117" s="3">
+        <v>0</v>
+      </c>
+      <c r="P117" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>0</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0</v>
-      </c>
-      <c r="D118" s="1">
-        <v>0</v>
-      </c>
-      <c r="E118" s="1">
-        <v>0</v>
-      </c>
-      <c r="F118" s="1">
-        <v>0</v>
-      </c>
-      <c r="G118" s="1">
-        <v>0</v>
-      </c>
-      <c r="H118" s="1">
-        <v>0</v>
-      </c>
-      <c r="I118" s="1">
-        <v>0</v>
-      </c>
-      <c r="J118" s="1">
-        <v>0</v>
-      </c>
-      <c r="K118" s="1">
-        <v>0</v>
-      </c>
-      <c r="L118" s="1">
-        <v>0</v>
-      </c>
-      <c r="M118" s="1">
-        <v>0</v>
-      </c>
-      <c r="N118" s="1">
-        <v>0</v>
-      </c>
-      <c r="O118" s="1">
-        <v>0</v>
-      </c>
-      <c r="P118" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="1">
+      <c r="A118" s="2">
+        <v>0</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>0</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0</v>
+      </c>
+      <c r="L118" s="3">
+        <v>0</v>
+      </c>
+      <c r="M118" s="3">
+        <v>0</v>
+      </c>
+      <c r="N118" s="3">
+        <v>0</v>
+      </c>
+      <c r="O118" s="3">
+        <v>0</v>
+      </c>
+      <c r="P118" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="3">
         <v>0</v>
       </c>
     </row>
@@ -40661,22 +42486,22 @@
         <v>2.3680999999999998E-10</v>
       </c>
       <c r="I133" s="1">
-        <v>1.12554E-9</v>
+        <v>1.08723E-9</v>
       </c>
       <c r="J133" s="1">
         <v>2.3680999999999998E-10</v>
       </c>
       <c r="K133" s="1">
-        <v>-3.83162E-11</v>
+        <v>0</v>
       </c>
       <c r="L133" s="1">
         <v>0</v>
       </c>
       <c r="M133" s="1">
-        <v>3.83162E-11</v>
+        <v>0</v>
       </c>
       <c r="N133" s="1">
-        <v>-3.83162E-11</v>
+        <v>0</v>
       </c>
       <c r="O133" s="1">
         <v>0</v>
@@ -40714,28 +42539,28 @@
         <v>0</v>
       </c>
       <c r="I134" s="1">
-        <v>2.3169299999999999E-11</v>
+        <v>4.7775800000000001E-11</v>
       </c>
       <c r="J134" s="1">
         <v>0</v>
       </c>
       <c r="K134" s="1">
-        <v>2.4606499999999999E-11</v>
+        <v>0</v>
       </c>
       <c r="L134" s="1">
         <v>0</v>
       </c>
       <c r="M134" s="1">
-        <v>-2.4606499999999999E-11</v>
+        <v>0</v>
       </c>
       <c r="N134" s="1">
-        <v>2.4606499999999999E-11</v>
+        <v>0</v>
       </c>
       <c r="O134" s="1">
         <v>0</v>
       </c>
       <c r="P134" s="1">
-        <v>-1.62415E-11</v>
+        <v>0</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -40788,7 +42613,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="1">
-        <v>1.62415E-11</v>
+        <v>0</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -41456,22 +43281,22 @@
         <v>1.9890600000000001E-8</v>
       </c>
       <c r="I149" s="1">
-        <v>2.9830200000000001E-8</v>
+        <v>2.9820700000000003E-8</v>
       </c>
       <c r="J149" s="1">
         <v>1.9890600000000001E-8</v>
       </c>
       <c r="K149" s="1">
-        <v>4.7608800000000002E-9</v>
+        <v>4.7704500000000002E-9</v>
       </c>
       <c r="L149" s="1">
         <v>3.4743000000000001E-10</v>
       </c>
       <c r="M149" s="1">
-        <v>9.5703199999999996E-12</v>
+        <v>0</v>
       </c>
       <c r="N149" s="1">
-        <v>-9.5703199999999996E-12</v>
+        <v>0</v>
       </c>
       <c r="O149" s="1">
         <v>0</v>
@@ -41493,11 +43318,11 @@
       <c r="C150">
         <v>0</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>0</v>
       </c>
       <c r="E150" s="1">
-        <v>-1.03437E-11</v>
+        <v>0</v>
       </c>
       <c r="F150" s="1">
         <v>0</v>
@@ -41506,31 +43331,31 @@
         <v>2.0702E-10</v>
       </c>
       <c r="H150" s="1">
-        <v>1.91624E-9</v>
+        <v>1.8507099999999999E-9</v>
       </c>
       <c r="I150" s="1">
-        <v>4.2311200000000002E-9</v>
+        <v>3.90446E-9</v>
       </c>
       <c r="J150" s="1">
-        <v>1.84937E-9</v>
+        <v>1.8507099999999999E-9</v>
       </c>
       <c r="K150" s="1">
-        <v>-1.3355899999999999E-10</v>
-      </c>
-      <c r="L150">
+        <v>2.0702E-10</v>
+      </c>
+      <c r="L150" s="1">
         <v>0</v>
       </c>
       <c r="M150" s="1">
-        <v>2.9659200000000002E-10</v>
+        <v>0</v>
       </c>
       <c r="N150" s="1">
-        <v>-2.8069499999999998E-10</v>
+        <v>0</v>
       </c>
       <c r="O150" s="1">
-        <v>-7.9262899999999993E-12</v>
+        <v>0</v>
       </c>
       <c r="P150" s="1">
-        <v>-1.9092899999999999E-11</v>
+        <v>0</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -41550,7 +43375,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="1">
-        <v>6.6426900000000002E-12</v>
+        <v>0</v>
       </c>
       <c r="F151" s="1">
         <v>0</v>
@@ -41559,31 +43384,31 @@
         <v>0</v>
       </c>
       <c r="H151" s="1">
-        <v>3.9625299999999998E-11</v>
+        <v>8.1708600000000001E-11</v>
       </c>
       <c r="I151" s="1">
-        <v>1.9426300000000001E-10</v>
+        <v>4.00041E-10</v>
       </c>
       <c r="J151" s="1">
-        <v>7.9439299999999996E-11</v>
+        <v>8.1708600000000001E-11</v>
       </c>
       <c r="K151" s="1">
-        <v>2.2429399999999999E-10</v>
+        <v>0</v>
       </c>
       <c r="L151" s="1">
-        <v>-6.2530800000000003E-12</v>
+        <v>0</v>
       </c>
       <c r="M151" s="1">
-        <v>-1.89989E-10</v>
+        <v>0</v>
       </c>
       <c r="N151" s="1">
-        <v>1.82905E-10</v>
+        <v>0</v>
       </c>
       <c r="O151" s="1">
-        <v>1.90082E-12</v>
+        <v>0</v>
       </c>
       <c r="P151" s="1">
-        <v>-1.2576899999999999E-10</v>
+        <v>0</v>
       </c>
       <c r="Q151">
         <v>0</v>
@@ -41615,28 +43440,28 @@
         <v>0</v>
       </c>
       <c r="I152" s="1">
-        <v>4.4533899999999998E-13</v>
+        <v>2.7723300000000002E-12</v>
       </c>
       <c r="J152" s="1">
-        <v>8.9912799999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="K152" s="1">
-        <v>-4.2616499999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="L152" s="1">
-        <v>1.79778E-12</v>
+        <v>0</v>
       </c>
       <c r="M152" s="1">
-        <v>-1.31538E-12</v>
+        <v>0</v>
       </c>
       <c r="N152" s="1">
-        <v>4.1672000000000002E-13</v>
+        <v>0</v>
       </c>
       <c r="O152" s="1">
-        <v>6.0254699999999998E-12</v>
+        <v>0</v>
       </c>
       <c r="P152" s="1">
-        <v>1.44862E-10</v>
+        <v>0</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -42251,22 +44076,22 @@
         <v>1.61791E-7</v>
       </c>
       <c r="I165" s="1">
-        <v>2.06104E-7</v>
+        <v>2.06101E-7</v>
       </c>
       <c r="J165" s="3">
         <v>1.61791E-7</v>
       </c>
       <c r="K165" s="1">
-        <v>8.7211899999999995E-8</v>
+        <v>8.7214300000000006E-8</v>
       </c>
       <c r="L165" s="1">
         <v>2.4393600000000001E-8</v>
       </c>
       <c r="M165" s="3">
-        <v>3.0783E-9</v>
+        <v>3.07591E-9</v>
       </c>
       <c r="N165" s="1">
-        <v>1.36455E-10</v>
+        <v>1.38845E-10</v>
       </c>
       <c r="O165" s="3">
         <v>0</v>
@@ -42292,7 +44117,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="3">
-        <v>1.7097300000000001E-10</v>
+        <v>1.7355699999999999E-10</v>
       </c>
       <c r="F166" s="3">
         <v>3.1106200000000002E-9</v>
@@ -42301,31 +44126,31 @@
         <v>1.8851600000000001E-8</v>
       </c>
       <c r="H166" s="3">
-        <v>4.7848599999999999E-8</v>
+        <v>4.7829800000000001E-8</v>
       </c>
       <c r="I166" s="1">
-        <v>6.0132699999999997E-8</v>
+        <v>6.0041500000000002E-8</v>
       </c>
       <c r="J166" s="3">
-        <v>4.7829499999999998E-8</v>
+        <v>4.7829800000000001E-8</v>
       </c>
       <c r="K166" s="1">
-        <v>1.8756899999999998E-8</v>
+        <v>1.8851600000000001E-8</v>
       </c>
       <c r="L166" s="1">
         <v>3.1106200000000002E-9</v>
       </c>
       <c r="M166" s="3">
-        <v>2.54826E-10</v>
+        <v>1.7355699999999999E-10</v>
       </c>
       <c r="N166" s="1">
-        <v>-7.7314999999999994E-11</v>
+        <v>0</v>
       </c>
       <c r="O166" s="3">
-        <v>-7.4352399999999993E-12</v>
+        <v>0</v>
       </c>
       <c r="P166" s="3">
-        <v>-2.1487699999999999E-12</v>
+        <v>0</v>
       </c>
       <c r="Q166" s="2">
         <v>0</v>
@@ -42338,47 +44163,47 @@
       <c r="B167" s="2">
         <v>0</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="3">
         <v>0</v>
       </c>
       <c r="D167" s="1">
-        <v>-1.09901E-11</v>
+        <v>0</v>
       </c>
       <c r="E167" s="3">
-        <v>-9.5588500000000003E-11</v>
+        <v>0</v>
       </c>
       <c r="F167" s="3">
-        <v>1.35699E-10</v>
+        <v>1.3788800000000001E-10</v>
       </c>
       <c r="G167" s="3">
-        <v>1.8801899999999999E-9</v>
+        <v>1.8119999999999999E-9</v>
       </c>
       <c r="H167" s="3">
-        <v>7.7818699999999997E-9</v>
+        <v>7.1655499999999999E-9</v>
       </c>
       <c r="I167" s="1">
-        <v>1.15237E-8</v>
+        <v>1.0146800000000001E-8</v>
       </c>
       <c r="J167" s="3">
-        <v>7.1238699999999997E-9</v>
+        <v>7.1655499999999999E-9</v>
       </c>
       <c r="K167" s="1">
-        <v>3.5410499999999999E-10</v>
+        <v>1.8119999999999999E-9</v>
       </c>
       <c r="L167" s="1">
-        <v>1.1243000000000001E-10</v>
+        <v>1.3788800000000001E-10</v>
       </c>
       <c r="M167" s="3">
-        <v>1.09859E-9</v>
+        <v>0</v>
       </c>
       <c r="N167" s="1">
-        <v>-9.9255799999999991E-10</v>
+        <v>0</v>
       </c>
       <c r="O167" s="3">
-        <v>-1.8607900000000001E-10</v>
+        <v>0</v>
       </c>
       <c r="P167" s="3">
-        <v>-1.7895000000000001E-10</v>
+        <v>0</v>
       </c>
       <c r="Q167" s="2">
         <v>0</v>
@@ -42395,43 +44220,43 @@
         <v>0</v>
       </c>
       <c r="D168" s="1">
-        <v>7.0577699999999997E-12</v>
+        <v>0</v>
       </c>
       <c r="E168" s="3">
-        <v>6.20475E-11</v>
+        <v>0</v>
       </c>
       <c r="F168" s="3">
-        <v>5.0908099999999996E-13</v>
+        <v>0</v>
       </c>
       <c r="G168" s="3">
-        <v>3.6991200000000001E-11</v>
+        <v>7.9882400000000002E-11</v>
       </c>
       <c r="H168" s="3">
-        <v>3.7253100000000001E-10</v>
+        <v>7.6355400000000005E-10</v>
       </c>
       <c r="I168" s="1">
-        <v>8.9658100000000003E-10</v>
+        <v>1.73899E-9</v>
       </c>
       <c r="J168" s="3">
-        <v>7.7294000000000002E-10</v>
+        <v>7.6355400000000005E-10</v>
       </c>
       <c r="K168" s="1">
-        <v>1.05802E-9</v>
+        <v>7.9882400000000002E-11</v>
       </c>
       <c r="L168" s="1">
-        <v>-4.3684399999999998E-11</v>
+        <v>0</v>
       </c>
       <c r="M168" s="3">
-        <v>-7.0071099999999996E-10</v>
+        <v>0</v>
       </c>
       <c r="N168" s="1">
-        <v>6.5245700000000001E-10</v>
+        <v>0</v>
       </c>
       <c r="O168" s="3">
-        <v>1.30083E-10</v>
+        <v>0</v>
       </c>
       <c r="P168" s="3">
-        <v>-4.9918100000000004E-10</v>
+        <v>0</v>
       </c>
       <c r="Q168" s="2">
         <v>0</v>
@@ -42451,40 +44276,40 @@
         <v>0</v>
       </c>
       <c r="E169" s="3">
-        <v>1.2767999999999999E-13</v>
+        <v>0</v>
       </c>
       <c r="F169" s="3">
-        <v>2.5778199999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="G169" s="3">
-        <v>-2.5778199999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="H169" s="3">
-        <v>1.0390199999999999E-12</v>
+        <v>4.8633399999999998E-12</v>
       </c>
       <c r="I169" s="1">
-        <v>6.0661300000000001E-12</v>
+        <v>2.9376400000000002E-11</v>
       </c>
       <c r="J169" s="3">
-        <v>9.7974600000000001E-12</v>
+        <v>4.8633399999999998E-12</v>
       </c>
       <c r="K169" s="1">
-        <v>-1.29778E-14</v>
+        <v>0</v>
       </c>
       <c r="L169" s="1">
-        <v>1.70541E-11</v>
+        <v>0</v>
       </c>
       <c r="M169" s="3">
-        <v>-1.14195E-11</v>
+        <v>0</v>
       </c>
       <c r="N169" s="1">
-        <v>5.3340400000000002E-12</v>
+        <v>0</v>
       </c>
       <c r="O169" s="3">
-        <v>6.3431099999999996E-11</v>
+        <v>0</v>
       </c>
       <c r="P169" s="3">
-        <v>6.8027999999999995E-10</v>
+        <v>0</v>
       </c>
       <c r="Q169" s="2">
         <v>0</v>
@@ -42506,6 +44331,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45364,7 +47190,7 @@
       <c r="B167">
         <v>0</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>0</v>
       </c>
     </row>
